--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9604026388.163242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00353122414715023</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05996194619825</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5664127741.068337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005361293830703153</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.29172844238026</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9444543414525092</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-6.29172844238026</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4338837856.992785</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003434443981766511</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.274556969414155</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9565606961790112</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.274556969414155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4867035114.55151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003952017301367673</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6.438144139891582</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8885243270348631</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-6.438144139891582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7068785698.552889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00185328479366524</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.606355009122243</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8479685678931387</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-4.606355009122243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8631312374.233294</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001008175806105971</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.034994665845835</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4949802664.638927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002668793165292805</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.225975662591964</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9455613242148047</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-6.225975662591964</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5249393934.789734</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003903583815168271</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.185434740996165</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9002208769831858</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.185434740996165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3291031961.644756</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005478094318542895</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.288291318401946</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9728265965267934</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-6.288291318401946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4572003395.499389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001328510308303841</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.669948862918526</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6033943129127882</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.669948862918526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6678213515.225588</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00137111386736892</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.613023372937451</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9098603517999688</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.613023372937451</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4381568370.095716</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003351535361688255</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.48911214737555</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9849449038490313</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.48911214737555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6453036591.135249</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002720631362193467</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9937431095785532</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7217189745.509907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005483532046827209</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.076609018329558</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5485891274.941236</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005634403078166969</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.386390548439726</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9243019730401842</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-6.386390548439726</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5252272421.666579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003290533007456778</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.43998706042979</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.8541146093742632</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.43998706042979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7153236207.0228</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001281109983061064</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.269574237991986</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.93443248564422</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.269574237991986</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2971304134.061615</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002032190825125134</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.323496403800542</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9400133743937078</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-6.323496403800542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,39 +984,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6249990694.728417</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0008716802949797369</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9216502555302429</v>
-      </c>
-      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6452787776.685593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004144577842824602</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9852855676076641</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1430,39 +1040,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4184420422.158567</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005402765904864436</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9385213982400145</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7112495840.039988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001656512845399937</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6.252690404883275</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9254330619382146</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-6.252690404883275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5367933326.148667</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003603350218733002</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.083389349073115</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5410383929.735673</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002716639732535486</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.581095651651525</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8467340062690163</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.581095651651525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3893830213.487748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001045421219836854</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8785605648769345</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.149029260086356</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.127571701428858</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-6.149029260086356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8548456444.257405</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002758441460959498</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.341440355534072</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9598359285636064</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-6.341440355534072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6803128626.955763</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004876683298305449</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.344191993520605</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9243019730401842</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-6.344191993520605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5631648259.753426</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001123309357055079</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.422614592799541</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9919936757018262</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-6.422614592799541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5594859001.781188</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002880770455589354</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6.187534029617844</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9186256384154361</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-6.187534029617844</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6645441806.336256</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002239749089640522</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.798113874304716</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.8131292597803232</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.798113874304716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4885789079.606662</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001015356340657829</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.01158325370849196</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.604474309796008</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.3800414493242866</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-6.604474309796008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7316930314.214035</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002740762979220477</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9440781158178605</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5903381309.543141</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004453125569260905</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8774594193176155</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6146032410.204339</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002638761624083844</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.311309367112595</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9477714109296497</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-6.311309367112595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6680354830.690834</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002633252108611196</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2911050490811515</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.517363131872843</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.5518389766121868</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-4.517363131872843</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2120,39 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4354738918.14112</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00416311612442446</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.120414591754849</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4425755320.94846</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004292345688915004</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9912395025405505</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>6.235567416228</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.286462644229192</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-6.235567416228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4007756562.829201</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002436281164357025</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9638170752215989</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5172614271.479107</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.005092654749060133</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.507698003529981</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.005609389645465</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-6.507698003529981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6885580961.39309</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001150645838136309</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.3383754655988</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9333123032859222</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-6.3383754655988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5261056567.252543</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004425808908710836</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.41854112706718</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9144477671398247</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.41854112706718</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5864035341.934736</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003857312328109799</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6.437035055191965</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9411255807815486</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-6.437035055191965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5847389920.943614</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002296272926213109</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.64091382762483</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.8865672927253315</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.64091382762483</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3712423838.392929</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001286233098308146</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.1163983184560207</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.600199046368761</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.2540971821951529</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-6.600199046368761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10002041158.49512</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005208068579756758</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9462916666075664</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9340563240.888666</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003186200564519816</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.006296151728305</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7912399758.854849</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003208776255742903</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.028912372243215</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4268748381.636108</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.00383014640864213</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.856938918698622</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7086401563356302</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.856938918698622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7731745795.864776</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003963900419726887</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.390274448238364</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.001439656441504</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-6.390274448238364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2764,39 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5119858144.755498</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004247534565817322</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.069785714529784</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8709179831.191813</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001709421001348164</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8688879920498103</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.250015981179508</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.126283629272431</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-6.250015981179508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5820424255.610453</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002877606889908635</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.026876935289928</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6681829122.371261</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004915852846789162</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.892334206983763</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.440777908455391</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.086467066407421</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.440777908455391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6120483437.24574</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003059584447643553</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.023816192460028</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5337325096.521782</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002006682014856986</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.015609116660762</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7876640251.311581</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004167845325542383</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9440781158178605</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4584052782.491237</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001952094037407517</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8489883857809929</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.372648636836624</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.027786760350165</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-4.372648636836624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6151852110.046813</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003560251220339302</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.483084292589195</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8191030170866269</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.483084292589195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5523193108.429413</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003632730765035396</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6.195462725553709</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8622335849181432</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-6.195462725553709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6025125834.64123</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005356876651310844</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.114428404143913</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734925</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.396682270445797</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-0.5160387081816098</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.396682270445797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5141175342.683564</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002608833084044965</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9863467263079037</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8175563061.401759</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00592524948915722</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.036004909781654</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4624378042.469629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003995153630481229</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9375527854463686</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.276846240030022</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.21494981892067</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-6.276846240030022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6557495326.605158</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005826095909786957</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.109153857798296</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5470238115.456115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003309294167459386</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9870733346341687</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.557055222605014</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.212289944930243</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-4.557055222605014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6533551693.537405</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005498552876936023</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.405466979531431</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8873461922893422</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.405466979531431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5843955662.4817</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002788672581947431</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.387514132521546</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.657584420201049</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.387514132521546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4713237566.137867</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001162111081510393</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.593631916323716</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.8877464611546957</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.593631916323716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5219997662.670773</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003679476243734795</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.134080929836935</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8955605888531094</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-7.134080929836935</v>
       </c>
     </row>
     <row r="71">
@@ -3684,39 +2412,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3590194351.979137</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003775378450772189</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9056203326151054</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6693644056.214634</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002175093962254979</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.148083315917466</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5222690640.926235</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001239734537726717</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6.29876777352543</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.963100022868158</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-6.29876777352543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4031664750.515102</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003143125770630414</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9842232648000121</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6848796444.014953</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004455190777374564</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.400497390513293</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8978937564275921</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-6.400497390513293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6403497685.270336</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002285865278976059</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.043049220520406</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7890748741.525889</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004097799072037871</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.06390233876885</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6604153114.079037</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004719325604783295</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.557419205681668</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.247598151004682</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.557419205681668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5634275768.864562</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001717349434001781</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.443912494320942</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.5773502691896257</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.443912494320942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6740685342.573126</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002875420448015691</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1904716447753286</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.817980715167795</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.2547351573009389</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.817980715167795</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7326143085.709633</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004756309811563239</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.243563157665916</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9652699537297172</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.243563157665916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6237364924.318278</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00504117845466973</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9928775730813724</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.396497951895845</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.284760367861213</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.396497951895845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8490315789.162072</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002281016749647397</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9799625380207893</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7399447213.472784</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003880813455354949</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1057679948622467</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.290642674439693</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.2221479399855917</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-6.290642674439693</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5607842964.741125</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003172061773082342</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.06467302455090065</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.461357284393157</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.4576328983979351</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.461357284393157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8601877145.598721</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002175292248260925</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.784385353065529</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.931449376113614</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.784385353065529</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4773737002.31843</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001185196924209607</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.505838699911201</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9437225771636611</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-4.505838699911201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8617590977.759115</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005093112189214228</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.454151264881158</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.7663166200115563</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.454151264881158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5334167591.840311</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004670823431574479</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.626283239610602</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.8734913864167992</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.626283239610602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4988370347.529896</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002814748663802357</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.450203713110114</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.8710928610771748</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.450203713110114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5464391380.405533</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004151644092916824</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.184662735594132</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8109660595265079</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.184662735594132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4897490488.317312</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004295231129176239</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.3266851776591314</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.390993221150007</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.7604751840884127</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-6.390993221150007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6325181620.307753</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001372881002719832</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.334667704995986</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9532742109106848</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-6.334667704995986</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5216828128.175218</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009406297076911272</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.093002575161051</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6523064829.159729</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002348285609394675</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.251394327733527</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9288180642167903</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-6.251394327733527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9432460176.694254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002429504107756364</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.056006850517047</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5844042321.102712</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003795041312150437</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9979450019336238</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6915724624.099536</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003695037855971394</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8706666190835879</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.337450221834779</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.061818740512691</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-4.337450221834779</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3427157992.179038</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005099481291274634</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.023816192460028</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4026876905.335329</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003566946711286526</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7587293225174077</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.452565234436777</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9200581027050568</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.452565234436777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8103715589.91584</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001718210149321519</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5624011577116067</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>6.602076928784957</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9220356326310027</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-6.602076928784957</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9604026388.163242</v>
+        <v>2124735050.413208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00353122414715023</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+        <v>0.09318680179538368</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03168956366065768</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1062367537.057198</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5664127741.068337</v>
+        <v>1764080826.997325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005361293830703153</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+        <v>0.1196638679139431</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04873938394656956</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>882040416.4719753</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4338837856.992785</v>
+        <v>3468519672.743567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003434443981766511</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1052710173410883</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03306320063903759</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1734259812.103474</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4867035114.55151</v>
+        <v>4156754325.366966</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003952017301367673</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08273104761172394</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03257248495140709</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2078377155.490655</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7068785698.552889</v>
+        <v>2031341074.189189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00185328479366524</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+        <v>0.1440366141790016</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05040602860931394</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1015670562.782465</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8631312374.233294</v>
+        <v>2564507963.389485</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001008175806105971</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>0.08438500401999231</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02995785339871256</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1282253987.793201</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4949802664.638927</v>
+        <v>2905965106.342563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002668793165292805</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+        <v>0.197433208722195</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02585051752733731</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1452982600.444244</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5249393934.789734</v>
+        <v>1574866162.305146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003903583815168271</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
+        <v>0.1971844782444238</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03222526268530101</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>787433166.1813384</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3291031961.644756</v>
+        <v>5921150885.804402</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005478094318542895</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1633253942891931</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05372013860309561</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2960575612.891972</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4572003395.499389</v>
+        <v>2843657106.641753</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001328510308303841</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1711109804038238</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04081814681265141</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1421828484.696512</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6678213515.225588</v>
+        <v>3246390473.127732</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00137111386736892</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
+        <v>0.1340265539813894</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04148739089039406</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1623195276.674819</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4381568370.095716</v>
+        <v>4718820872.738749</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003351535361688255</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.07147536854835958</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02301156469670033</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2359410454.31093</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6453036591.135249</v>
+        <v>3472207807.749638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002720631362193467</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
+        <v>0.1544625362269523</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03131760914349701</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1736103903.317983</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7217189745.509907</v>
+        <v>1421301601.257379</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005483532046827209</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
+        <v>0.09553924800709648</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03177358446512298</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>710650867.6764404</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5485891274.941236</v>
+        <v>2003574487.51816</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005634403078166969</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
+        <v>0.07415428766904555</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04312849293882974</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1001787318.459131</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5252272421.666579</v>
+        <v>3442954208.894319</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003290533007456778</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+        <v>0.1559567562043472</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05282857624707504</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1721477165.920917</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7153236207.0228</v>
+        <v>3886327060.292332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001281109983061064</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.1483864462497305</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02302401560684016</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1943163495.597163</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2971304134.061615</v>
+        <v>916284919.8192791</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002032190825125134</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1896879042436671</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01656667545477832</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>458142468.4462224</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6249990694.728417</v>
+        <v>2298072518.712697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0008716802949797369</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1510431146440759</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02171467486955669</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1149036253.35671</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6452787776.685593</v>
+        <v>1680639182.82162</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004144577842824602</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
+        <v>0.08120198229660604</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04515611241762722</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>840319657.3678182</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4184420422.158567</v>
+        <v>2737775353.694052</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005402765904864436</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.09334192713191843</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04657126710413806</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1368887753.448992</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7112495840.039988</v>
+        <v>1315542745.09673</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001656512845399937</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
+        <v>0.1332846071577569</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04235443887804835</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>657771389.0102237</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5367933326.148667</v>
+        <v>2565749493.061148</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003603350218733002</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
+        <v>0.09653348153817001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03105882906062587</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1282874810.474641</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5410383929.735673</v>
+        <v>1123427940.711917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002716639732535486</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+        <v>0.07993709618117641</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02494745778019643</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>561714005.3429753</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3893830213.487748</v>
+        <v>1368435541.841201</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001045421219836854</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08577424154139993</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03173225711336174</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>684217832.8344254</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8548456444.257405</v>
+        <v>2862151904.834228</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002758441460959498</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
+        <v>0.1404632791731038</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01638950750491601</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1431076018.58167</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6803128626.955763</v>
+        <v>3696855375.936873</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004876683298305449</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
+        <v>0.1095491118061679</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04330371766926831</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1848427758.996713</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5631648259.753426</v>
+        <v>4616991182.288188</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001123309357055079</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
+        <v>0.09457513323020549</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02902677485487945</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2308495564.498449</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5594859001.781188</v>
+        <v>1450381066.000723</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002880770455589354</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
+        <v>0.1077325477056059</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02815259837336817</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>725190507.2610264</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6645441806.336256</v>
+        <v>1081057677.47467</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002239749089640522</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+        <v>0.107000405404935</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04852254867530967</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>540528817.6994492</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4885789079.606662</v>
+        <v>1265583042.829013</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001015356340657829</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0900552921937022</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03688559713157561</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>632791540.8663163</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7316930314.214035</v>
+        <v>2529013764.257503</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002740762979220477</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
+        <v>0.1856454288199486</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03805920295059059</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1264506917.320856</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5903381309.543141</v>
+        <v>979051873.2874739</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004453125569260905</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
+        <v>0.1066678565383319</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02762102747346927</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>489525977.2620003</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6146032410.204339</v>
+        <v>1243785173.00489</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002638761624083844</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
+        <v>0.1119410709464041</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02863145510655276</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>621892550.7338773</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6680354830.690834</v>
+        <v>2815778119.136262</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002633252108611196</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
+        <v>0.1103658301129119</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02698455288364139</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1407889055.723507</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4354738918.14112</v>
+        <v>1876201027.961976</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00416311612442446</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
+        <v>0.101979117976102</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02798397333012793</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>938100523.79802</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4425755320.94846</v>
+        <v>1745079910.527397</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004292345688915004</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09556880536218798</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0302624905871084</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>872539969.3677384</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4007756562.829201</v>
+        <v>1475051191.490138</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002436281164357025</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1549411312855752</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03085898204728862</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>737525669.2299086</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5172614271.479107</v>
+        <v>1098339898.264599</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005092654749060133</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
+        <v>0.1097199638098358</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05544387226081809</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>549170015.3037553</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6885580961.39309</v>
+        <v>2765574523.25409</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001150645838136309</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
+        <v>0.1559520689783707</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04071200772551408</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1382787260.568092</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5261056567.252543</v>
+        <v>3267653808.650557</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004425808908710836</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
+        <v>0.08753066711817757</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03602906878221517</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1633826882.506696</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5864035341.934736</v>
+        <v>2397312539.42042</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003857312328109799</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
+        <v>0.1940232663002468</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01667174401876573</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1198656328.067002</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5847389920.943614</v>
+        <v>1833674272.709295</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002296272926213109</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
+        <v>0.0940177175740287</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03489264708556682</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>916837208.9698043</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3712423838.392929</v>
+        <v>2461594100.265008</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001286233098308146</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
+        <v>0.1301916384588078</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05129942104768733</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1230797086.9819</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10002041158.49512</v>
+        <v>3750477989.583827</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005208068579756758</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
+        <v>0.1740704523206227</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04301817895546189</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1875238949.538472</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9340563240.888666</v>
+        <v>3405947670.702957</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003186200564519816</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
+        <v>0.1645720971447676</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04695036216183371</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1702973799.885768</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7912399758.854849</v>
+        <v>3592480862.927603</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003208776255742903</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
+        <v>0.110113765930247</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03403490170917598</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1796240488.908243</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4268748381.636108</v>
+        <v>1621459504.24256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00383014640864213</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1694157863796743</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03535549418659401</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>810729764.6227351</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7731745795.864776</v>
+        <v>2714425669.8261</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003963900419726887</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
+        <v>0.1117760314070456</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03684466589642191</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1357212914.426268</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5119858144.755498</v>
+        <v>1352291193.550989</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004247534565817322</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1583753648107432</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03700712524491674</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>676145623.1076715</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8709179831.191813</v>
+        <v>3471031158.975354</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001709421001348164</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
+        <v>0.129185909789759</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05609328808464988</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1735515666.248061</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5820424255.610453</v>
+        <v>3077912058.586974</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002877606889908635</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
+        <v>0.1748426156258643</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02754625574621264</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1538956055.77489</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6681829122.371261</v>
+        <v>4303119615.372056</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004915852846789162</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
+        <v>0.1441933214078075</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03215555600458726</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2151559894.79178</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6120483437.24574</v>
+        <v>3144465668.739148</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003059584447643553</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
+        <v>0.1355908743777004</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0311652648069658</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1572232770.730512</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5337325096.521782</v>
+        <v>1772054115.761283</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002006682014856986</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1194898781194657</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04317568586514194</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>886027059.2439436</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7876640251.311581</v>
+        <v>3442686726.132907</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004167845325542383</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
+        <v>0.1306247807990536</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0178931971046849</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1721343404.098595</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4584052782.491237</v>
+        <v>1761454209.583046</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001952094037407517</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+        <v>0.1757988730433222</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03589458816196629</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>880727111.5927997</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6151852110.046813</v>
+        <v>5323849152.387391</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003560251220339302</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
+        <v>0.1241346452492007</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0454527344970409</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2661924487.590442</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5523193108.429413</v>
+        <v>2594274642.777483</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003632730765035396</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.187339685199161</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02364132902686889</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1297137348.696533</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6025125834.64123</v>
+        <v>2748233321.082485</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005356876651310844</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
+        <v>0.1702673452860865</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02276128992829592</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1374116663.910317</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5141175342.683564</v>
+        <v>1635816041.372734</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002608833084044965</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1653929767394934</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04621172812541346</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>817908023.5408018</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8175563061.401759</v>
+        <v>5438487617.171073</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00592524948915722</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
+        <v>0.07322067459442554</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04347516739125699</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2719243806.335026</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4624378042.469629</v>
+        <v>5113206484.185087</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003995153630481229</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1880822435193901</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02764106262702155</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2556603355.758676</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6557495326.605158</v>
+        <v>4020657972.635356</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005826095909786957</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
+        <v>0.1623654199577817</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0239900162100632</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2010329003.272922</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5470238115.456115</v>
+        <v>5045733369.094333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003309294167459386</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1055047278513185</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04815112053218614</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2522866713.726775</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6533551693.537405</v>
+        <v>2723518896.518058</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005498552876936023</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
+        <v>0.08452107043832065</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03210559627253627</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1361759489.261399</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5843955662.4817</v>
+        <v>4200661435.768413</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002788672581947431</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
+        <v>0.1222671215437263</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03958931580816055</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2100330725.3104</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4713237566.137867</v>
+        <v>2374720347.814076</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001162111081510393</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.1760839417261754</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04057794475835217</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1187360226.385545</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5219997662.670773</v>
+        <v>3107004678.529869</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003679476243734795</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
+        <v>0.09848395570922663</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04870535907284931</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1553502322.662007</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3590194351.979137</v>
+        <v>4231765601.863324</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003775378450772189</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1600492847250184</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0227935691603929</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2115882848.776231</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6693644056.214634</v>
+        <v>1642633111.245243</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002175093962254979</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
+        <v>0.07079648942137808</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0321333683420272</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>821316559.0435573</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5222690640.926235</v>
+        <v>3445260320.85075</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001239734537726717</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
+        <v>0.08102251851480416</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03872830265459315</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1722630114.888816</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4031664750.515102</v>
+        <v>2702565080.437988</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003143125770630414</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
+        <v>0.116205285350489</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03510045009787065</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1351282629.592628</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6848796444.014953</v>
+        <v>1530936884.650323</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004455190777374564</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
+        <v>0.1451881596047361</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03444544251363697</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>765468450.1503342</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6403497685.270336</v>
+        <v>3554014107.457297</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002285865278976059</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
+        <v>0.08364001496624265</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02650896722538105</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1777007019.173867</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7890748741.525889</v>
+        <v>1826592579.346251</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004097799072037871</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
+        <v>0.1621487144586325</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02934788181952593</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>913296325.0322114</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6604153114.079037</v>
+        <v>3446053541.357557</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004719325604783295</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
+        <v>0.1340496278965463</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03917690347946995</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1723026775.458312</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5634275768.864562</v>
+        <v>1669140661.436181</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001717349434001781</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
+        <v>0.1579156620873177</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03347165221449407</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>834570393.9682392</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6740685342.573126</v>
+        <v>3912520797.727386</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002875420448015691</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
+        <v>0.09966968118494601</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02607078888155194</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1956260393.477896</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7326143085.709633</v>
+        <v>4778093638.959952</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004756309811563239</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
+        <v>0.1213519727499384</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02444080414806172</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2389046811.141238</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6237364924.318278</v>
+        <v>5302735020.265452</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00504117845466973</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
+        <v>0.1512969307486453</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02716113482216634</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2651367476.609632</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8490315789.162072</v>
+        <v>2183802906.328068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002281016749647397</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
+        <v>0.1239821777756018</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04458298231643082</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1091901460.844347</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7399447213.472784</v>
+        <v>2280529970.498186</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003880813455354949</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.09213747364306189</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03946705702672237</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1140264948.278389</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5607842964.741125</v>
+        <v>3103974031.271864</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003172061773082342</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1309421650106692</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04006227748821763</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1551987086.673993</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8601877145.598721</v>
+        <v>2485475887.737675</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002175292248260925</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
+        <v>0.1733562855452875</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02252749520614552</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1242738038.35056</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4773737002.31843</v>
+        <v>1016758244.837356</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001185196924209607</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1274378961441005</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03324428208112942</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>508379130.5172929</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8617590977.759115</v>
+        <v>2789048729.519196</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005093112189214228</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
+        <v>0.1761114596725404</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03449109170776269</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1394524373.823611</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5334167591.840311</v>
+        <v>2226168481.665165</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004670823431574479</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.09684571251755619</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0288312000760848</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1113084335.154881</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4988370347.529896</v>
+        <v>1889171400.371646</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002814748663802357</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.1089219786966659</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05395272793178651</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>944585749.3644698</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5464391380.405533</v>
+        <v>1372464631.083363</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004151644092916824</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
+        <v>0.1871993198281756</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06062144414099541</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>686232370.9079951</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4897490488.317312</v>
+        <v>2444885391.82747</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004295231129176239</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08119858449330955</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03561777629152497</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1222442675.160617</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6325181620.307753</v>
+        <v>4666840725.12494</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001372881002719832</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
+        <v>0.1057384394432556</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05167703585592235</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2333420319.402266</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5216828128.175218</v>
+        <v>2424122841.374688</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009406297076911272</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
+        <v>0.1682645739529774</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03356065509555364</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1212061473.71788</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6523064829.159729</v>
+        <v>2875027344.884043</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002348285609394675</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
+        <v>0.09633567413562759</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.045707849259252</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1437513680.677958</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9432460176.694254</v>
+        <v>1919353215.90347</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002429504107756364</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
+        <v>0.126359090380332</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03009967954586068</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>959676602.9503962</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5844042321.102712</v>
+        <v>5317311820.785321</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003795041312150437</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
+        <v>0.1605690747903829</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02663288659321449</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2658656070.546053</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6915724624.099536</v>
+        <v>2867984489.84047</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003695037855971394</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
+        <v>0.08693830851840323</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02433936453169016</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1433992220.047879</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3427157992.179038</v>
+        <v>3348942309.25483</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005099481291274634</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1215971070148834</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03235520533757208</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1674471165.44489</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4026876905.335329</v>
+        <v>3776540593.166577</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003566946711286526</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1489379206815707</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01957457876360039</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1888270348.846374</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8103715589.91584</v>
+        <v>3500307571.609354</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001718210149321519</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
+        <v>0.138931390233542</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04661627914543338</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1750153940.106302</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2124735050.413208</v>
+        <v>2163918364.510698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09318680179538368</v>
+        <v>0.09435114624365731</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03168956366065768</v>
+        <v>0.03927005869103079</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1062367537.057198</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1764080826.997325</v>
+        <v>1826104969.989888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1196638679139431</v>
+        <v>0.1726542860546471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04873938394656956</v>
+        <v>0.0458783790940599</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>882040416.4719753</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3468519672.743567</v>
+        <v>3418054909.620592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1052710173410883</v>
+        <v>0.1128625483636436</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03306320063903759</v>
+        <v>0.03612994719056714</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1734259812.103474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4156754325.366966</v>
+        <v>3971536639.380335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08273104761172394</v>
+        <v>0.09087514418733209</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03257248495140709</v>
+        <v>0.03834630417446128</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2078377155.490655</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2031341074.189189</v>
+        <v>1988425275.413362</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1440366141790016</v>
+        <v>0.1170085743218811</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05040602860931394</v>
+        <v>0.04732014878067095</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1015670562.782465</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2564507963.389485</v>
+        <v>2130534100.480013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08438500401999231</v>
+        <v>0.06936794754186312</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02995785339871256</v>
+        <v>0.03387441871594091</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1282253987.793201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2905965106.342563</v>
+        <v>3490689444.561448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.197433208722195</v>
+        <v>0.2159607268826652</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02585051752733731</v>
+        <v>0.02334501001736392</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1452982600.444244</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1574866162.305146</v>
+        <v>1919765747.822094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1971844782444238</v>
+        <v>0.185606911089721</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03222526268530101</v>
+        <v>0.03436018338388894</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>787433166.1813384</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5921150885.804402</v>
+        <v>4783437554.63263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1633253942891931</v>
+        <v>0.1478950989848949</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05372013860309561</v>
+        <v>0.03658674849008729</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2960575612.891972</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2843657106.641753</v>
+        <v>3173464102.715764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1711109804038238</v>
+        <v>0.1276780627855087</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04081814681265141</v>
+        <v>0.04684538165942804</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1421828484.696512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3246390473.127732</v>
+        <v>3270322496.467092</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1340265539813894</v>
+        <v>0.1491616671900654</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04148739089039406</v>
+        <v>0.03444220262520502</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1623195276.674819</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4718820872.738749</v>
+        <v>3228695462.239565</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07147536854835958</v>
+        <v>0.0826322707934347</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02301156469670033</v>
+        <v>0.01982524561784268</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2359410454.31093</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3472207807.749638</v>
+        <v>3828814785.61413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1544625362269523</v>
+        <v>0.1882439427748234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03131760914349701</v>
+        <v>0.03883538616918861</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1736103903.317983</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1421301601.257379</v>
+        <v>1809765001.154672</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09553924800709648</v>
+        <v>0.09172168747253147</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03177358446512298</v>
+        <v>0.03051825058159402</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>710650867.6764404</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2003574487.51816</v>
+        <v>2299485072.133573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07415428766904555</v>
+        <v>0.1005707876828729</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04312849293882974</v>
+        <v>0.03702190998677467</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1001787318.459131</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3442954208.894319</v>
+        <v>3687041946.913629</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1559567562043472</v>
+        <v>0.1391162340694062</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05282857624707504</v>
+        <v>0.04214925742562341</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1721477165.920917</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3886327060.292332</v>
+        <v>3369978222.083532</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483864462497305</v>
+        <v>0.1435326060931355</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02302401560684016</v>
+        <v>0.02630510249168274</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1943163495.597163</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>916284919.8192791</v>
+        <v>1211659683.071424</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1896879042436671</v>
+        <v>0.187355145061232</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01656667545477832</v>
+        <v>0.02735644609578706</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>458142468.4462224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2298072518.712697</v>
+        <v>2432412513.983599</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1510431146440759</v>
+        <v>0.1234572407734763</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02171467486955669</v>
+        <v>0.02459333885994007</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1149036253.35671</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1680639182.82162</v>
+        <v>2303199281.872013</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08120198229660604</v>
+        <v>0.08025053102835879</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04515611241762722</v>
+        <v>0.04057976777695746</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>840319657.3678182</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2737775353.694052</v>
+        <v>3198441331.709745</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09334192713191843</v>
+        <v>0.1348621248099222</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04657126710413806</v>
+        <v>0.05603086632295535</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1368887753.448992</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1315542745.09673</v>
+        <v>1015126061.076949</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1332846071577569</v>
+        <v>0.1471010278521913</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04235443887804835</v>
+        <v>0.05151440582023092</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>657771389.0102237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2565749493.061148</v>
+        <v>2809105478.814153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09653348153817001</v>
+        <v>0.1296379079413763</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03105882906062587</v>
+        <v>0.02582369082176022</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1282874810.474641</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1123427940.711917</v>
+        <v>1172706190.368338</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07993709618117641</v>
+        <v>0.07421534783454695</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02494745778019643</v>
+        <v>0.0246199517223946</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>561714005.3429753</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1368435541.841201</v>
+        <v>902152499.7192532</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08577424154139993</v>
+        <v>0.09028038612721177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03173225711336174</v>
+        <v>0.02651015689152167</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>684217832.8344254</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2862151904.834228</v>
+        <v>3651342037.923761</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1404632791731038</v>
+        <v>0.1524042481091345</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01638950750491601</v>
+        <v>0.01754422215815765</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1431076018.58167</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3696855375.936873</v>
+        <v>3239676216.51183</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1095491118061679</v>
+        <v>0.1027574189610804</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04330371766926831</v>
+        <v>0.03443588547681196</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1848427758.996713</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4616991182.288188</v>
+        <v>4658348173.760972</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09457513323020549</v>
+        <v>0.1094240682608508</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02902677485487945</v>
+        <v>0.04254827999346167</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2308495564.498449</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1450381066.000723</v>
+        <v>1701383291.18729</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1077325477056059</v>
+        <v>0.1373163625830279</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02815259837336817</v>
+        <v>0.03370122165215778</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>725190507.2610264</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1081057677.47467</v>
+        <v>924017513.997894</v>
       </c>
       <c r="F31" t="n">
-        <v>0.107000405404935</v>
+        <v>0.07290863061213092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04852254867530967</v>
+        <v>0.04423329905741031</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>540528817.6994492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1265583042.829013</v>
+        <v>1803340025.448269</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0900552921937022</v>
+        <v>0.09261977859042775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03688559713157561</v>
+        <v>0.03578153001942917</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>632791540.8663163</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2529013764.257503</v>
+        <v>1958175521.518001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1856454288199486</v>
+        <v>0.141006792276929</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03805920295059059</v>
+        <v>0.04513515118044137</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1264506917.320856</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>979051873.2874739</v>
+        <v>1207404819.145382</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1066678565383319</v>
+        <v>0.1105578815538445</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02762102747346927</v>
+        <v>0.0270110262727447</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>489525977.2620003</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1243785173.00489</v>
+        <v>1010984169.858691</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1119410709464041</v>
+        <v>0.1155954167827539</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02863145510655276</v>
+        <v>0.04439183786216128</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>621892550.7338773</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2815778119.136262</v>
+        <v>2809446187.302369</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1103658301129119</v>
+        <v>0.117652149461217</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02698455288364139</v>
+        <v>0.02748839826179359</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1407889055.723507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1876201027.961976</v>
+        <v>2092812259.831308</v>
       </c>
       <c r="F37" t="n">
-        <v>0.101979117976102</v>
+        <v>0.07721658996318274</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02798397333012793</v>
+        <v>0.02705047189669984</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>938100523.79802</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1745079910.527397</v>
+        <v>1829182258.011831</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09556880536218798</v>
+        <v>0.1176207386575363</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0302624905871084</v>
+        <v>0.02869810800433538</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>872539969.3677384</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1475051191.490138</v>
+        <v>1899161433.030642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1549411312855752</v>
+        <v>0.1920129599718537</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03085898204728862</v>
+        <v>0.02639987970177398</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>737525669.2299086</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1098339898.264599</v>
+        <v>1315937054.577783</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1097199638098358</v>
+        <v>0.1184019591510566</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05544387226081809</v>
+        <v>0.03769197528153759</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>549170015.3037553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2765574523.25409</v>
+        <v>2375014039.026194</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1559520689783707</v>
+        <v>0.1574526664116271</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04071200772551408</v>
+        <v>0.0349734352814249</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1382787260.568092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3267653808.650557</v>
+        <v>2814941963.330589</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08753066711817757</v>
+        <v>0.08128808063247624</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03602906878221517</v>
+        <v>0.04566580409789144</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1633826882.506696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2397312539.42042</v>
+        <v>2754960726.963584</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1940232663002468</v>
+        <v>0.1725839326155682</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01667174401876573</v>
+        <v>0.01693814867016946</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1198656328.067002</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1833674272.709295</v>
+        <v>1698522965.911183</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0940177175740287</v>
+        <v>0.08916683278469906</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03489264708556682</v>
+        <v>0.03454546191338002</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>916837208.9698043</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2461594100.265008</v>
+        <v>2130682153.349027</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1301916384588078</v>
+        <v>0.1437527945384442</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05129942104768733</v>
+        <v>0.0497924894646512</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1230797086.9819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3750477989.583827</v>
+        <v>4242116880.642369</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1740704523206227</v>
+        <v>0.1164304324070774</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04301817895546189</v>
+        <v>0.04014624159322394</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1875238949.538472</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3405947670.702957</v>
+        <v>3516761904.280757</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1645720971447676</v>
+        <v>0.1632020124188554</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04695036216183371</v>
+        <v>0.04373910821303017</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1702973799.885768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3592480862.927603</v>
+        <v>3991600913.643023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.110113765930247</v>
+        <v>0.07813257827613906</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03403490170917598</v>
+        <v>0.02473896581918018</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1796240488.908243</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1621459504.24256</v>
+        <v>1566524783.607498</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1694157863796743</v>
+        <v>0.1552484159687145</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03535549418659401</v>
+        <v>0.04246241622693317</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>810729764.6227351</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2714425669.8261</v>
+        <v>3643959525.899857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1117760314070456</v>
+        <v>0.1526238032645188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03684466589642191</v>
+        <v>0.04114926685535314</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1357212914.426268</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1352291193.550989</v>
+        <v>1414235579.54264</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1583753648107432</v>
+        <v>0.1385168713778284</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03700712524491674</v>
+        <v>0.0505672736644943</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>676145623.1076715</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3471031158.975354</v>
+        <v>4399478097.605711</v>
       </c>
       <c r="F52" t="n">
-        <v>0.129185909789759</v>
+        <v>0.08597965631770012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05609328808464988</v>
+        <v>0.05382316660103506</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1735515666.248061</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3077912058.586974</v>
+        <v>3704082113.936422</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1748426156258643</v>
+        <v>0.1412199062123275</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02754625574621264</v>
+        <v>0.03227591616727155</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1538956055.77489</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4303119615.372056</v>
+        <v>4108030550.464462</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1441933214078075</v>
+        <v>0.1234135941545736</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03215555600458726</v>
+        <v>0.0324752067704909</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2151559894.79178</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3144465668.739148</v>
+        <v>3536394383.497216</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1355908743777004</v>
+        <v>0.2075765405304146</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0311652648069658</v>
+        <v>0.02127929788926683</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1572232770.730512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1772054115.761283</v>
+        <v>1380970071.944023</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1194898781194657</v>
+        <v>0.1327011834601811</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04317568586514194</v>
+        <v>0.05082051611368055</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>886027059.2439436</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3442686726.132907</v>
+        <v>3806294315.124366</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1306247807990536</v>
+        <v>0.1539972816524876</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0178931971046849</v>
+        <v>0.02641198783492142</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1721343404.098595</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1761454209.583046</v>
+        <v>1498060850.721698</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1757988730433222</v>
+        <v>0.2025119159869818</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03589458816196629</v>
+        <v>0.03798178182175374</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>880727111.5927997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5323849152.387391</v>
+        <v>4365049854.788609</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1241346452492007</v>
+        <v>0.1099226850304952</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0454527344970409</v>
+        <v>0.04805032870256646</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2661924487.590442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2594274642.777483</v>
+        <v>3713324561.781393</v>
       </c>
       <c r="F60" t="n">
-        <v>0.187339685199161</v>
+        <v>0.191719503852031</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02364132902686889</v>
+        <v>0.02905550498387106</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1297137348.696533</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2748233321.082485</v>
+        <v>2489280527.79532</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1702673452860865</v>
+        <v>0.1674816975907208</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02276128992829592</v>
+        <v>0.02485878772607535</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1374116663.910317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1635816041.372734</v>
+        <v>1790396539.797621</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1653929767394934</v>
+        <v>0.1746703209104054</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04621172812541346</v>
+        <v>0.03418628870781344</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>817908023.5408018</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5438487617.171073</v>
+        <v>3537886407.146539</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07322067459442554</v>
+        <v>0.07164884596184756</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04347516739125699</v>
+        <v>0.03484146183467148</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2719243806.335026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5113206484.185087</v>
+        <v>4397391413.568734</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1880822435193901</v>
+        <v>0.1880684749451058</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02764106262702155</v>
+        <v>0.03405680480896718</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2556603355.758676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4020657972.635356</v>
+        <v>4022246447.88699</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1623654199577817</v>
+        <v>0.1162184739566345</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0239900162100632</v>
+        <v>0.02938977108740271</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2010329003.272922</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5045733369.094333</v>
+        <v>3766596086.530462</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1055047278513185</v>
+        <v>0.1294155294473571</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04815112053218614</v>
+        <v>0.04153808526802398</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2522866713.726775</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2723518896.518058</v>
+        <v>2999950639.921495</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08452107043832065</v>
+        <v>0.08617686756562611</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03210559627253627</v>
+        <v>0.04148945497486804</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1361759489.261399</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4200661435.768413</v>
+        <v>4390115371.182117</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1222671215437263</v>
+        <v>0.1364332919297916</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03958931580816055</v>
+        <v>0.03623121792727133</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2100330725.3104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2374720347.814076</v>
+        <v>2298765012.760693</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1760839417261754</v>
+        <v>0.1612985107766541</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04057794475835217</v>
+        <v>0.05901165299768828</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1187360226.385545</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3107004678.529869</v>
+        <v>2642470762.995631</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09848395570922663</v>
+        <v>0.09887675641647181</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04870535907284931</v>
+        <v>0.03326730851529602</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1553502322.662007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4231765601.863324</v>
+        <v>4524840117.93297</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1600492847250184</v>
+        <v>0.1175434718648583</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0227935691603929</v>
+        <v>0.03358270462423885</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2115882848.776231</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1642633111.245243</v>
+        <v>2262353748.276917</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07079648942137808</v>
+        <v>0.08433390775382436</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0321333683420272</v>
+        <v>0.04977592608122983</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>821316559.0435573</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3445260320.85075</v>
+        <v>2919193403.381063</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08102251851480416</v>
+        <v>0.08191184585251024</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03872830265459315</v>
+        <v>0.0421257806067991</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1722630114.888816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2702565080.437988</v>
+        <v>2670442296.643046</v>
       </c>
       <c r="F74" t="n">
-        <v>0.116205285350489</v>
+        <v>0.1284104975496593</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03510045009787065</v>
+        <v>0.03246102892944135</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1351282629.592628</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1530936884.650323</v>
+        <v>2034959850.021004</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1451881596047361</v>
+        <v>0.1169063471721872</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03444544251363697</v>
+        <v>0.03022696470505846</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>765468450.1503342</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3554014107.457297</v>
+        <v>3606318350.335813</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08364001496624265</v>
+        <v>0.1175134386669314</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02650896722538105</v>
+        <v>0.02699112251412743</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1777007019.173867</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1826592579.346251</v>
+        <v>2252868525.221572</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1621487144586325</v>
+        <v>0.1839694796724542</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02934788181952593</v>
+        <v>0.02992377323236654</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>913296325.0322114</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3446053541.357557</v>
+        <v>4036270887.777161</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1340496278965463</v>
+        <v>0.1156945181985329</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03917690347946995</v>
+        <v>0.04462978894537337</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1723026775.458312</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1669140661.436181</v>
+        <v>1555066159.860581</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1579156620873177</v>
+        <v>0.1243192778862127</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03347165221449407</v>
+        <v>0.03365211114935532</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>834570393.9682392</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3912520797.727386</v>
+        <v>4872204495.370695</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09966968118494601</v>
+        <v>0.08835136897968622</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02607078888155194</v>
+        <v>0.03549546462161416</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1956260393.477896</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4778093638.959952</v>
+        <v>4208214920.017735</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1213519727499384</v>
+        <v>0.1089633926328396</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02444080414806172</v>
+        <v>0.02580378554499883</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2389046811.141238</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5302735020.265452</v>
+        <v>5030123658.225677</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1512969307486453</v>
+        <v>0.2003453993518141</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02716113482216634</v>
+        <v>0.02152048185453775</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2651367476.609632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2183802906.328068</v>
+        <v>2344980624.203629</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239821777756018</v>
+        <v>0.1164872212110514</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04458298231643082</v>
+        <v>0.03092907412761211</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1091901460.844347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2280529970.498186</v>
+        <v>2144611083.993961</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09213747364306189</v>
+        <v>0.09949283798131053</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03946705702672237</v>
+        <v>0.04470797368576312</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1140264948.278389</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3103974031.271864</v>
+        <v>2829211684.957163</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1309421650106692</v>
+        <v>0.119564421450573</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04006227748821763</v>
+        <v>0.05116983126745274</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1551987086.673993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2485475887.737675</v>
+        <v>1818891319.913979</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1733562855452875</v>
+        <v>0.1475418019680736</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02252749520614552</v>
+        <v>0.02195510451825497</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1242738038.35056</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1016758244.837356</v>
+        <v>1463363173.426297</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1274378961441005</v>
+        <v>0.1464428254775327</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03324428208112942</v>
+        <v>0.03942367531358095</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>508379130.5172929</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2789048729.519196</v>
+        <v>2899764631.325728</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1761114596725404</v>
+        <v>0.1211153407752289</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03449109170776269</v>
+        <v>0.03755892753221334</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1394524373.823611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2226168481.665165</v>
+        <v>3208560074.60057</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09684571251755619</v>
+        <v>0.147324448216661</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0288312000760848</v>
+        <v>0.04179844526428733</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1113084335.154881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1889171400.371646</v>
+        <v>1987345304.328601</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1089219786966659</v>
+        <v>0.08847761296400872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05395272793178651</v>
+        <v>0.03725947113780163</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>944585749.3644698</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1372464631.083363</v>
+        <v>1647240335.347638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1871993198281756</v>
+        <v>0.1551329781253628</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06062144414099541</v>
+        <v>0.05832694946444907</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>686232370.9079951</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2444885391.82747</v>
+        <v>2275478481.588205</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08119858449330955</v>
+        <v>0.1020379956795722</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03561777629152497</v>
+        <v>0.03629069566506871</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1222442675.160617</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4666840725.12494</v>
+        <v>3252878648.141119</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1057384394432556</v>
+        <v>0.104308990381581</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05167703585592235</v>
+        <v>0.04924315231762397</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2333420319.402266</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2424122841.374688</v>
+        <v>1806158446.116856</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1682645739529774</v>
+        <v>0.123054779113595</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03356065509555364</v>
+        <v>0.03602576867171706</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1212061473.71788</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2875027344.884043</v>
+        <v>2754166690.073841</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09633567413562759</v>
+        <v>0.1342269609691792</v>
       </c>
       <c r="G95" t="n">
-        <v>0.045707849259252</v>
+        <v>0.04845265203329176</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1437513680.677958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1919353215.90347</v>
+        <v>2201229586.871831</v>
       </c>
       <c r="F96" t="n">
-        <v>0.126359090380332</v>
+        <v>0.1324120872739322</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03009967954586068</v>
+        <v>0.03820272573707174</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>959676602.9503962</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5317311820.785321</v>
+        <v>3758245056.997234</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1605690747903829</v>
+        <v>0.1578680432970931</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02663288659321449</v>
+        <v>0.01945688632472991</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2658656070.546053</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2867984489.84047</v>
+        <v>2372810038.842806</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08693830851840323</v>
+        <v>0.08445842433346923</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02433936453169016</v>
+        <v>0.03258844562112582</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1433992220.047879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3348942309.25483</v>
+        <v>3310169766.153193</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1215971070148834</v>
+        <v>0.1352297728879816</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03235520533757208</v>
+        <v>0.02489097287283203</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1674471165.44489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3776540593.166577</v>
+        <v>4336747797.564184</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1489379206815707</v>
+        <v>0.1258686157896315</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01957457876360039</v>
+        <v>0.02357750581192678</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1888270348.846374</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3500307571.609354</v>
+        <v>3458598898.829791</v>
       </c>
       <c r="F101" t="n">
-        <v>0.138931390233542</v>
+        <v>0.204582350185191</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04661627914543338</v>
+        <v>0.03812087354929557</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1750153940.106302</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2163918364.510698</v>
+        <v>2313568022.382268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09435114624365731</v>
+        <v>0.1058163487588761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03927005869103079</v>
+        <v>0.03132722422990022</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1826104969.989888</v>
+        <v>2569509114.740245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1726542860546471</v>
+        <v>0.1760685424954259</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0458783790940599</v>
+        <v>0.0327391761738585</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3418054909.620592</v>
+        <v>4931245030.131974</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1128625483636436</v>
+        <v>0.1201883738928276</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03612994719056714</v>
+        <v>0.03607699405736498</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3971536639.380335</v>
+        <v>2971988226.444588</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09087514418733209</v>
+        <v>0.08681376089405501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03834630417446128</v>
+        <v>0.03291330589736147</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1988425275.413362</v>
+        <v>2369710646.159361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1170085743218811</v>
+        <v>0.1460197269090014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04732014878067095</v>
+        <v>0.04405121486102244</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2130534100.480013</v>
+        <v>1970494665.094462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06936794754186312</v>
+        <v>0.0971252107947856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03387441871594091</v>
+        <v>0.03944116896580229</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3490689444.561448</v>
+        <v>3185622189.362397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2159607268826652</v>
+        <v>0.1462609241664896</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02334501001736392</v>
+        <v>0.02763302383618168</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1919765747.822094</v>
+        <v>1616848197.764344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.185606911089721</v>
+        <v>0.1510776040226637</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03436018338388894</v>
+        <v>0.0235628535769168</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4783437554.63263</v>
+        <v>4896878536.609052</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1478950989848949</v>
+        <v>0.1933498920752969</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03658674849008729</v>
+        <v>0.04821795453711249</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3173464102.715764</v>
+        <v>3160909875.064734</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1276780627855087</v>
+        <v>0.1152699146643721</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04684538165942804</v>
+        <v>0.03789684622431264</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3270322496.467092</v>
+        <v>2855227607.313766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1491616671900654</v>
+        <v>0.1554731203436702</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03444220262520502</v>
+        <v>0.0503015083165456</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3228695462.239565</v>
+        <v>4854528834.111211</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0826322707934347</v>
+        <v>0.08579506717883466</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01982524561784268</v>
+        <v>0.02466340988543593</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3828814785.61413</v>
+        <v>3189835052.253291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1882439427748234</v>
+        <v>0.134843586102521</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03883538616918861</v>
+        <v>0.03268723393304624</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1809765001.154672</v>
+        <v>1834228305.552062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09172168747253147</v>
+        <v>0.09451792544043607</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03051825058159402</v>
+        <v>0.04440776454200508</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2299485072.133573</v>
+        <v>2601225638.273005</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1005707876828729</v>
+        <v>0.1157317895820099</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03702190998677467</v>
+        <v>0.04511700530228509</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3687041946.913629</v>
+        <v>3899772772.311819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1391162340694062</v>
+        <v>0.1240288426832424</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04214925742562341</v>
+        <v>0.04930130016679506</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3369978222.083532</v>
+        <v>3959185022.811089</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1435326060931355</v>
+        <v>0.1451502355831829</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02630510249168274</v>
+        <v>0.02570969124902652</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1211659683.071424</v>
+        <v>961224994.0199604</v>
       </c>
       <c r="F19" t="n">
-        <v>0.187355145061232</v>
+        <v>0.1353384643549309</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02735644609578706</v>
+        <v>0.02514384619997972</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2432412513.983599</v>
+        <v>2470700029.395035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1234572407734763</v>
+        <v>0.1034020346508203</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02459333885994007</v>
+        <v>0.03055433994773166</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2303199281.872013</v>
+        <v>1736300134.964687</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08025053102835879</v>
+        <v>0.06948732528028345</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04057976777695746</v>
+        <v>0.04121730802733212</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3198441331.709745</v>
+        <v>2475331809.765693</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1348621248099222</v>
+        <v>0.111053355837096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05603086632295535</v>
+        <v>0.05473297358261832</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1015126061.076949</v>
+        <v>1494523923.516008</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1471010278521913</v>
+        <v>0.1754207729965581</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05151440582023092</v>
+        <v>0.0544049017891589</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2809105478.814153</v>
+        <v>2767247230.951464</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1296379079413763</v>
+        <v>0.1491349362870956</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02582369082176022</v>
+        <v>0.03510021375771041</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1172706190.368338</v>
+        <v>898186648.2700559</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07421534783454695</v>
+        <v>0.08518011363355452</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0246199517223946</v>
+        <v>0.02074054573496764</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>902152499.7192532</v>
+        <v>1218097054.2489</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09028038612721177</v>
+        <v>0.120860464057389</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02651015689152167</v>
+        <v>0.03784954620595568</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3651342037.923761</v>
+        <v>4604421263.109138</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1524042481091345</v>
+        <v>0.1437764868030871</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01754422215815765</v>
+        <v>0.01714468392098365</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3239676216.51183</v>
+        <v>3097898209.410425</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1027574189610804</v>
+        <v>0.0941161078000919</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03443588547681196</v>
+        <v>0.0319591397808572</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4658348173.760972</v>
+        <v>4680124836.164658</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1094240682608508</v>
+        <v>0.1137869421015019</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04254827999346167</v>
+        <v>0.02973912292761865</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1701383291.18729</v>
+        <v>2203477225.92358</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1373163625830279</v>
+        <v>0.1179865953677845</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03370122165215778</v>
+        <v>0.02633657912390069</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>924017513.997894</v>
+        <v>1491917461.069956</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07290863061213092</v>
+        <v>0.1096117147929938</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04423329905741031</v>
+        <v>0.05198877743612039</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1803340025.448269</v>
+        <v>1326920554.099958</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09261977859042775</v>
+        <v>0.1190313436991801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03578153001942917</v>
+        <v>0.02699477939335775</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1958175521.518001</v>
+        <v>2424801586.642546</v>
       </c>
       <c r="F33" t="n">
-        <v>0.141006792276929</v>
+        <v>0.1640328383590672</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04513515118044137</v>
+        <v>0.04289261948323217</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1207404819.145382</v>
+        <v>969147346.9402031</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1105578815538445</v>
+        <v>0.1118514749366097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0270110262727447</v>
+        <v>0.01809980864356629</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1010984169.858691</v>
+        <v>1253677335.790944</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1155954167827539</v>
+        <v>0.1029490066026907</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04439183786216128</v>
+        <v>0.04206952408260151</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2809446187.302369</v>
+        <v>2212506717.168073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.117652149461217</v>
+        <v>0.133753404408011</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02748839826179359</v>
+        <v>0.02047818072010159</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2092812259.831308</v>
+        <v>2519448736.814668</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07721658996318274</v>
+        <v>0.07033635995827667</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02705047189669984</v>
+        <v>0.03679236540898807</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1829182258.011831</v>
+        <v>1828975320.51889</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1176207386575363</v>
+        <v>0.09846703623344732</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02869810800433538</v>
+        <v>0.02636362113169115</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1899161433.030642</v>
+        <v>1820565800.070568</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1920129599718537</v>
+        <v>0.1353237839356438</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02639987970177398</v>
+        <v>0.03176510608429062</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1315937054.577783</v>
+        <v>1445853646.913474</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1184019591510566</v>
+        <v>0.1036108943264383</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03769197528153759</v>
+        <v>0.04350354836085787</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2375014039.026194</v>
+        <v>1977384724.478714</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1574526664116271</v>
+        <v>0.121470709972259</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0349734352814249</v>
+        <v>0.04417687703893402</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2814941963.330589</v>
+        <v>2820462981.438143</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08128808063247624</v>
+        <v>0.1123856403524192</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04566580409789144</v>
+        <v>0.03995104068480607</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2754960726.963584</v>
+        <v>2724561247.84411</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1725839326155682</v>
+        <v>0.1409118032761486</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01693814867016946</v>
+        <v>0.01997807610260312</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1698522965.911183</v>
+        <v>1842108242.498379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08916683278469906</v>
+        <v>0.07453178449941744</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03454546191338002</v>
+        <v>0.0287526844582394</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2130682153.349027</v>
+        <v>2481774129.71238</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1437527945384442</v>
+        <v>0.1481629027469049</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0497924894646512</v>
+        <v>0.04575069822645069</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4242116880.642369</v>
+        <v>4845673576.772416</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1164304324070774</v>
+        <v>0.1518181544937131</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04014624159322394</v>
+        <v>0.03699589694387743</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3516761904.280757</v>
+        <v>5151654893.744348</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1632020124188554</v>
+        <v>0.1386888964257572</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04373910821303017</v>
+        <v>0.05782463933101935</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3991600913.643023</v>
+        <v>3814210353.635024</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07813257827613906</v>
+        <v>0.07112992000736891</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02473896581918018</v>
+        <v>0.03323012549056437</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1566524783.607498</v>
+        <v>1257192812.907336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1552484159687145</v>
+        <v>0.1400840965575562</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04246241622693317</v>
+        <v>0.04403817330812675</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3643959525.899857</v>
+        <v>3300420540.881862</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1526238032645188</v>
+        <v>0.1494918252034567</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04114926685535314</v>
+        <v>0.05345643817675425</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1414235579.54264</v>
+        <v>1136260172.766218</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1385168713778284</v>
+        <v>0.1247054069189221</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0505672736644943</v>
+        <v>0.04845724519365519</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4399478097.605711</v>
+        <v>4530684349.954492</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08597965631770012</v>
+        <v>0.1362588532664943</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05382316660103506</v>
+        <v>0.03769907124991936</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3704082113.936422</v>
+        <v>3774942278.384058</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1412199062123275</v>
+        <v>0.1604301774645618</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03227591616727155</v>
+        <v>0.02241488924272795</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4108030550.464462</v>
+        <v>4630993831.43823</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1234135941545736</v>
+        <v>0.1092544775834595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0324752067704909</v>
+        <v>0.05177359832017573</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3536394383.497216</v>
+        <v>3690211154.050944</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2075765405304146</v>
+        <v>0.1894500323805643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02127929788926683</v>
+        <v>0.02427423109214184</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1380970071.944023</v>
+        <v>1820380008.596582</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1327011834601811</v>
+        <v>0.1037451832631093</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05082051611368055</v>
+        <v>0.0507704876394179</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3806294315.124366</v>
+        <v>3628243107.909612</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1539972816524876</v>
+        <v>0.1501319549840538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02641198783492142</v>
+        <v>0.01796956458103747</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1498060850.721698</v>
+        <v>1178032972.678672</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2025119159869818</v>
+        <v>0.1676586215691611</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03798178182175374</v>
+        <v>0.03405845162332417</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4365049854.788609</v>
+        <v>3546106119.71417</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1099226850304952</v>
+        <v>0.1171577273643317</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04805032870256646</v>
+        <v>0.04470435208566514</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3713324561.781393</v>
+        <v>2776276906.065822</v>
       </c>
       <c r="F60" t="n">
-        <v>0.191719503852031</v>
+        <v>0.1363056892432682</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02905550498387106</v>
+        <v>0.02774528043890074</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2489280527.79532</v>
+        <v>3074963904.997495</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1674816975907208</v>
+        <v>0.15952567547216</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02485878772607535</v>
+        <v>0.02944003547204601</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1790396539.797621</v>
+        <v>1766984621.757285</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1746703209104054</v>
+        <v>0.1659353947204479</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03418628870781344</v>
+        <v>0.03468053701476341</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3537886407.146539</v>
+        <v>5183787574.437003</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07164884596184756</v>
+        <v>0.1030970422977708</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03484146183467148</v>
+        <v>0.03432742920942777</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4397391413.568734</v>
+        <v>4641214206.470042</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1880684749451058</v>
+        <v>0.1684513246520083</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03405680480896718</v>
+        <v>0.02524519418075375</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4022246447.88699</v>
+        <v>5567893728.003881</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1162184739566345</v>
+        <v>0.1327435182224538</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02938977108740271</v>
+        <v>0.02158299039157932</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3766596086.530462</v>
+        <v>5210996404.935327</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1294155294473571</v>
+        <v>0.15356254536824</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04153808526802398</v>
+        <v>0.03460164057044733</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2999950639.921495</v>
+        <v>2982988567.472408</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08617686756562611</v>
+        <v>0.09354102438276923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04148945497486804</v>
+        <v>0.04327201119518818</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4390115371.182117</v>
+        <v>3675029847.008297</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1364332919297916</v>
+        <v>0.1252148223728012</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03623121792727133</v>
+        <v>0.03763468220395273</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2298765012.760693</v>
+        <v>2337694692.954131</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1612985107766541</v>
+        <v>0.1717033907438004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05901165299768828</v>
+        <v>0.05257180442377506</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2642470762.995631</v>
+        <v>3046211455.138142</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09887675641647181</v>
+        <v>0.08447579669696173</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03326730851529602</v>
+        <v>0.03437880139530872</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4524840117.93297</v>
+        <v>4292779999.524345</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1175434718648583</v>
+        <v>0.1858819467121157</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03358270462423885</v>
+        <v>0.03155799118141125</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2262353748.276917</v>
+        <v>2187611543.646178</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08433390775382436</v>
+        <v>0.06802786283545008</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04977592608122983</v>
+        <v>0.04587092492486831</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2919193403.381063</v>
+        <v>3074522921.596288</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08191184585251024</v>
+        <v>0.09568911658791507</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0421257806067991</v>
+        <v>0.05161970546836511</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2670442296.643046</v>
+        <v>4021543638.046299</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1284104975496593</v>
+        <v>0.1287448192837354</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03246102892944135</v>
+        <v>0.02379448047251562</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2034959850.021004</v>
+        <v>2138760726.868132</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1169063471721872</v>
+        <v>0.1041822919741991</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03022696470505846</v>
+        <v>0.03660455561953521</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3606318350.335813</v>
+        <v>4231093308.381629</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1175134386669314</v>
+        <v>0.1204308144501564</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02699112251412743</v>
+        <v>0.02070132581427558</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2252868525.221572</v>
+        <v>2150171084.805209</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1839694796724542</v>
+        <v>0.1754622992035169</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02992377323236654</v>
+        <v>0.02438555918487934</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4036270887.777161</v>
+        <v>3643481746.437495</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1156945181985329</v>
+        <v>0.1313562311872603</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04462978894537337</v>
+        <v>0.03752962162146471</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1555066159.860581</v>
+        <v>1378890926.686055</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1243192778862127</v>
+        <v>0.1352114358100855</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03365211114935532</v>
+        <v>0.02959915859167838</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4872204495.370695</v>
+        <v>4224851769.141107</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08835136897968622</v>
+        <v>0.08304760203626915</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03549546462161416</v>
+        <v>0.02839537090934429</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4208214920.017735</v>
+        <v>4168195328.8737</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1089633926328396</v>
+        <v>0.09931701557738534</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02580378554499883</v>
+        <v>0.02599065299555305</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5030123658.225677</v>
+        <v>4816701436.474254</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2003453993518141</v>
+        <v>0.1818982589979853</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02152048185453775</v>
+        <v>0.02961230969113725</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2344980624.203629</v>
+        <v>2071998426.525524</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1164872212110514</v>
+        <v>0.1578314943720507</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03092907412761211</v>
+        <v>0.04124814194346294</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2144611083.993961</v>
+        <v>2600359968.553888</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09949283798131053</v>
+        <v>0.07950533742819814</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04470797368576312</v>
+        <v>0.04702222576571578</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2829211684.957163</v>
+        <v>2742719022.932081</v>
       </c>
       <c r="F85" t="n">
-        <v>0.119564421450573</v>
+        <v>0.1545505437598714</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05116983126745274</v>
+        <v>0.05250560604164565</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1818891319.913979</v>
+        <v>2072961783.037174</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1475418019680736</v>
+        <v>0.1467164146023749</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02195510451825497</v>
+        <v>0.02128007085722734</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1463363173.426297</v>
+        <v>924626465.8355869</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1464428254775327</v>
+        <v>0.1250020297126235</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03942367531358095</v>
+        <v>0.03399692477213506</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2899764631.325728</v>
+        <v>2404089489.760389</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1211153407752289</v>
+        <v>0.1738543592329992</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03755892753221334</v>
+        <v>0.03391266989378464</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3208560074.60057</v>
+        <v>2338058349.566236</v>
       </c>
       <c r="F89" t="n">
-        <v>0.147324448216661</v>
+        <v>0.1334593913885221</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04179844526428733</v>
+        <v>0.02979645108241183</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1987345304.328601</v>
+        <v>1458818200.122447</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08847761296400872</v>
+        <v>0.1038999327386113</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03725947113780163</v>
+        <v>0.03596519433293836</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1647240335.347638</v>
+        <v>2021681122.350352</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1551329781253628</v>
+        <v>0.1667278852269796</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05832694946444907</v>
+        <v>0.03972331248665631</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2275478481.588205</v>
+        <v>1932207673.090532</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1020379956795722</v>
+        <v>0.08281692512800745</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03629069566506871</v>
+        <v>0.04129061868124895</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3252878648.141119</v>
+        <v>4489788452.872315</v>
       </c>
       <c r="F93" t="n">
-        <v>0.104308990381581</v>
+        <v>0.1159813193562176</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04924315231762397</v>
+        <v>0.04887737669143512</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1806158446.116856</v>
+        <v>1930542752.874518</v>
       </c>
       <c r="F94" t="n">
-        <v>0.123054779113595</v>
+        <v>0.1227933835074044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03602576867171706</v>
+        <v>0.04060906902307802</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2754166690.073841</v>
+        <v>1982617231.67607</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1342269609691792</v>
+        <v>0.1026418263295656</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04845265203329176</v>
+        <v>0.03722710925592918</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2201229586.871831</v>
+        <v>1536305097.885266</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1324120872739322</v>
+        <v>0.1281161703866055</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03820272573707174</v>
+        <v>0.04103689226231252</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3758245056.997234</v>
+        <v>4451488524.96097</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1578680432970931</v>
+        <v>0.1418652938845217</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01945688632472991</v>
+        <v>0.0202394348299578</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2372810038.842806</v>
+        <v>3515666276.83132</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08445842433346923</v>
+        <v>0.1178714177206803</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03258844562112582</v>
+        <v>0.0292347574764021</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3310169766.153193</v>
+        <v>2616269954.410603</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1352297728879816</v>
+        <v>0.1001096940359744</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02489097287283203</v>
+        <v>0.03013787376296954</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4336747797.564184</v>
+        <v>3116213178.465961</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1258686157896315</v>
+        <v>0.115752919546428</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02357750581192678</v>
+        <v>0.01714474220232273</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3458598898.829791</v>
+        <v>2594281262.433549</v>
       </c>
       <c r="F101" t="n">
-        <v>0.204582350185191</v>
+        <v>0.1414962019479017</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03812087354929557</v>
+        <v>0.04823126891960181</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2313568022.382268</v>
+        <v>1907939640.315015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1058163487588761</v>
+        <v>0.07486465054191309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03132722422990022</v>
+        <v>0.02869942064278225</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2569509114.740245</v>
+        <v>1817316692.684522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1760685424954259</v>
+        <v>0.1356164022611701</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0327391761738585</v>
+        <v>0.04039386651565081</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4931245030.131974</v>
+        <v>5095813207.907131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1201883738928276</v>
+        <v>0.1630705182531129</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03607699405736498</v>
+        <v>0.02523953029905275</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.0638015132822</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2971988226.444588</v>
+        <v>4233324301.100486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08681376089405501</v>
+        <v>0.1064781318727547</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03291330589736147</v>
+        <v>0.03317564457624125</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>214.4894383503144</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2369710646.159361</v>
+        <v>2111341185.600129</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1460197269090014</v>
+        <v>0.1234856236655318</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04405121486102244</v>
+        <v>0.05187576120220411</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1970494665.094462</v>
+        <v>2178574290.108939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0971252107947856</v>
+        <v>0.08341474078584138</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03944116896580229</v>
+        <v>0.04232694278816188</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3185622189.362397</v>
+        <v>3124975363.159169</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1462609241664896</v>
+        <v>0.1829304592539516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02763302383618168</v>
+        <v>0.02640183542464765</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1616848197.764344</v>
+        <v>1515050198.061676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1510776040226637</v>
+        <v>0.1483990068296483</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0235628535769168</v>
+        <v>0.02635900440072935</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4896878536.609052</v>
+        <v>4371257395.288908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1933498920752969</v>
+        <v>0.1742369681265314</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04821795453711249</v>
+        <v>0.03927460982186614</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1908324344061</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3160909875.064734</v>
+        <v>3845764832.291898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1152699146643721</v>
+        <v>0.1865728136939222</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03789684622431264</v>
+        <v>0.03115188886500816</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2855227607.313766</v>
+        <v>3168670237.510778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1554731203436702</v>
+        <v>0.188625702380409</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0503015083165456</v>
+        <v>0.04101404326989375</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4854528834.111211</v>
+        <v>4736523530.380699</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08579506717883466</v>
+        <v>0.08261703304910585</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02466340988543593</v>
+        <v>0.02319361038141774</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>212.2424432863279</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3189835052.253291</v>
+        <v>2517751488.248107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.134843586102521</v>
+        <v>0.1806310653706575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03268723393304624</v>
+        <v>0.03676965148425426</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1834228305.552062</v>
+        <v>1250605156.249432</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09451792544043607</v>
+        <v>0.1073410803600103</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04440776454200508</v>
+        <v>0.0404306467405454</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2601225638.273005</v>
+        <v>2210625513.385565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1157317895820099</v>
+        <v>0.09668237359682393</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04511700530228509</v>
+        <v>0.05149220343707527</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3899772772.311819</v>
+        <v>4248041676.477777</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1240288426832424</v>
+        <v>0.1612655533601821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04930130016679506</v>
+        <v>0.03539339802016095</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3959185022.811089</v>
+        <v>2508192316.79046</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1451502355831829</v>
+        <v>0.1793798586244165</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02570969124902652</v>
+        <v>0.03201875102865114</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>961224994.0199604</v>
+        <v>1190593409.361138</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1353384643549309</v>
+        <v>0.1507397422326494</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02514384619997972</v>
+        <v>0.01769901560577093</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2470700029.395035</v>
+        <v>2792926215.980846</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034020346508203</v>
+        <v>0.1255019463233286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03055433994773166</v>
+        <v>0.0232520204727433</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1736300134.964687</v>
+        <v>1874024454.094717</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06948732528028345</v>
+        <v>0.07655432676981971</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04121730802733212</v>
+        <v>0.03467567232769363</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2475331809.765693</v>
+        <v>3816190388.605793</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111053355837096</v>
+        <v>0.139888985313518</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05473297358261832</v>
+        <v>0.05632843103318005</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>146.0016439473501</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1494523923.516008</v>
+        <v>1485946875.074459</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1754207729965581</v>
+        <v>0.1176329462824386</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0544049017891589</v>
+        <v>0.03903663836704099</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2767247230.951464</v>
+        <v>3666128696.226119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1491349362870956</v>
+        <v>0.1380294396388465</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03510021375771041</v>
+        <v>0.03750886413570152</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>898186648.2700559</v>
+        <v>1440648105.271671</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08518011363355452</v>
+        <v>0.1015137373596673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02074054573496764</v>
+        <v>0.03030734120265451</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1218097054.2489</v>
+        <v>1061145841.676872</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120860464057389</v>
+        <v>0.1157609441937625</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03784954620595568</v>
+        <v>0.03185676533161739</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4604421263.109138</v>
+        <v>4193979103.6052</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437764868030871</v>
+        <v>0.1506210040250297</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01714468392098365</v>
+        <v>0.02711108906884131</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3097898209.410425</v>
+        <v>2752831428.431936</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0941161078000919</v>
+        <v>0.09619332718882095</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0319591397808572</v>
+        <v>0.04998613583167073</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>84.73528960460519</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4680124836.164658</v>
+        <v>5851964236.725453</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1137869421015019</v>
+        <v>0.1368696439950103</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02973912292761865</v>
+        <v>0.03496934528280417</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0435435001189</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2203477225.92358</v>
+        <v>1585779370.681198</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1179865953677845</v>
+        <v>0.1334706322082342</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02633657912390069</v>
+        <v>0.03972967638243726</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1491917461.069956</v>
+        <v>1278649506.001403</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1096117147929938</v>
+        <v>0.08455676248757674</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05198877743612039</v>
+        <v>0.04889011729107145</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1326920554.099958</v>
+        <v>1451208048.521177</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1190313436991801</v>
+        <v>0.08641132579398932</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02699477939335775</v>
+        <v>0.03167927447005799</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2424801586.642546</v>
+        <v>2139512139.205077</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1640328383590672</v>
+        <v>0.1591298285379012</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04289261948323217</v>
+        <v>0.04728872081986606</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>969147346.9402031</v>
+        <v>1379430431.293927</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1118514749366097</v>
+        <v>0.1069240915167093</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01809980864356629</v>
+        <v>0.02740173072746824</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1253677335.790944</v>
+        <v>1300005284.836984</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029490066026907</v>
+        <v>0.1065976356330151</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04206952408260151</v>
+        <v>0.02742762342687272</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2212506717.168073</v>
+        <v>2333286013.382034</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133753404408011</v>
+        <v>0.1307114303278197</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02047818072010159</v>
+        <v>0.02289131583329232</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2519448736.814668</v>
+        <v>2474476909.931923</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07033635995827667</v>
+        <v>0.09136588052620082</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03679236540898807</v>
+        <v>0.04068376077140935</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1828975320.51889</v>
+        <v>1647885498.553745</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09846703623344732</v>
+        <v>0.07721113925055863</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02636362113169115</v>
+        <v>0.0388289310474305</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1820565800.070568</v>
+        <v>2212542059.046212</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1353237839356438</v>
+        <v>0.1374361990700669</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03176510608429062</v>
+        <v>0.03080691781571373</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1445853646.913474</v>
+        <v>1295280384.969673</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1036108943264383</v>
+        <v>0.1192942538922362</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04350354836085787</v>
+        <v>0.05067723232383699</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1977384724.478714</v>
+        <v>2152894870.930177</v>
       </c>
       <c r="F41" t="n">
-        <v>0.121470709972259</v>
+        <v>0.1196302993730283</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04417687703893402</v>
+        <v>0.03314032746358894</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2820462981.438143</v>
+        <v>4331782086.812561</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1123856403524192</v>
+        <v>0.1057466487935635</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03995104068480607</v>
+        <v>0.03294928085903968</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>210.3726344126073</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2724561247.84411</v>
+        <v>2880528429.850323</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1409118032761486</v>
+        <v>0.1336284912574437</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01997807610260312</v>
+        <v>0.0226473466821768</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1842108242.498379</v>
+        <v>1689043439.849719</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07453178449941744</v>
+        <v>0.08648523422410949</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0287526844582394</v>
+        <v>0.02856834303423164</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2481774129.71238</v>
+        <v>1697234474.314309</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1481629027469049</v>
+        <v>0.1758104928844756</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04575069822645069</v>
+        <v>0.05135678634052637</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4845673576.772416</v>
+        <v>5210314192.920227</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1518181544937131</v>
+        <v>0.1231042927494096</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03699589694387743</v>
+        <v>0.03759773466797929</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5151654893.744348</v>
+        <v>3206112469.060851</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1386888964257572</v>
+        <v>0.166593735917372</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05782463933101935</v>
+        <v>0.04091935844055316</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3814210353.635024</v>
+        <v>3998495907.913564</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07112992000736891</v>
+        <v>0.09502900751043922</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03323012549056437</v>
+        <v>0.02589675074247652</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>179.4653474624451</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1257192812.907336</v>
+        <v>1437326838.261972</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1400840965575562</v>
+        <v>0.1294751894868003</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04403817330812675</v>
+        <v>0.03074419860560678</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3300420540.881862</v>
+        <v>2606213454.025885</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494918252034567</v>
+        <v>0.1168054200044267</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05345643817675425</v>
+        <v>0.05254397815631766</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1136260172.766218</v>
+        <v>1030774145.435587</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1247054069189221</v>
+        <v>0.1328315386752794</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04845724519365519</v>
+        <v>0.04296511717368551</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4530684349.954492</v>
+        <v>3977537343.571189</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1362588532664943</v>
+        <v>0.1064871894223569</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03769907124991936</v>
+        <v>0.05380942202567426</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3774942278.384058</v>
+        <v>2310899142.129931</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1604301774645618</v>
+        <v>0.1341176779198335</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02241488924272795</v>
+        <v>0.03008041614225802</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4630993831.43823</v>
+        <v>3869496937.933224</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1092544775834595</v>
+        <v>0.135690480113022</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05177359832017573</v>
+        <v>0.03219104063889612</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3690211154.050944</v>
+        <v>4967017415.27821</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1894500323805643</v>
+        <v>0.1410305157121366</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02427423109214184</v>
+        <v>0.03060869374715746</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1820380008.596582</v>
+        <v>1371170243.461123</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1037451832631093</v>
+        <v>0.165206776018745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0507704876394179</v>
+        <v>0.05791732156133438</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3628243107.909612</v>
+        <v>4267577947.201787</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1501319549840538</v>
+        <v>0.1206799575439323</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01796956458103747</v>
+        <v>0.01676427833680451</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>196.2226436150813</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1178032972.678672</v>
+        <v>1637771342.610859</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1676586215691611</v>
+        <v>0.1411367933804889</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03405845162332417</v>
+        <v>0.02827150345022058</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3546106119.71417</v>
+        <v>3822307852.806584</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1171577273643317</v>
+        <v>0.1150737232650456</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04470435208566514</v>
+        <v>0.0386225067765027</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>145.7242531085139</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2776276906.065822</v>
+        <v>2792878428.424829</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1363056892432682</v>
+        <v>0.1259558781890459</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02774528043890074</v>
+        <v>0.02211928228679433</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3074963904.997495</v>
+        <v>2941158323.801291</v>
       </c>
       <c r="F61" t="n">
-        <v>0.15952567547216</v>
+        <v>0.1797599523344942</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02944003547204601</v>
+        <v>0.0214043701806288</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1766984621.757285</v>
+        <v>1332331799.427507</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1659353947204479</v>
+        <v>0.1880192979421907</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03468053701476341</v>
+        <v>0.04562657504136124</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5183787574.437003</v>
+        <v>4787094740.753971</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1030970422977708</v>
+        <v>0.07588445686597964</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03432742920942777</v>
+        <v>0.0417863802127536</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.4981065545964</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4641214206.470042</v>
+        <v>5348699936.332502</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1684513246520083</v>
+        <v>0.1159649461129368</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02524519418075375</v>
+        <v>0.02247992792134921</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.301949820831</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5567893728.003881</v>
+        <v>5164454452.989465</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1327435182224538</v>
+        <v>0.1626641291301546</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02158299039157932</v>
+        <v>0.02271141286693684</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.6621324660845</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5210996404.935327</v>
+        <v>3647848668.555709</v>
       </c>
       <c r="F66" t="n">
-        <v>0.15356254536824</v>
+        <v>0.1248601428596678</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03460164057044733</v>
+        <v>0.03731542009206837</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>140.2912393650671</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2982988567.472408</v>
+        <v>2695827841.253682</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09354102438276923</v>
+        <v>0.06230326962801895</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04327201119518818</v>
+        <v>0.03563263684006827</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3675029847.008297</v>
+        <v>5506346078.890463</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1252148223728012</v>
+        <v>0.1481195856537383</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03763468220395273</v>
+        <v>0.03632696243349406</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.2413063129822</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2337694692.954131</v>
+        <v>2099629078.122532</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1717033907438004</v>
+        <v>0.1284586697151625</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05257180442377506</v>
+        <v>0.05919022465103481</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3046211455.138142</v>
+        <v>2737281643.287127</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08447579669696173</v>
+        <v>0.08987470908962239</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03437880139530872</v>
+        <v>0.04724547177347754</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4292779999.524345</v>
+        <v>4465911076.522226</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1858819467121157</v>
+        <v>0.1618162048708196</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03155799118141125</v>
+        <v>0.02287390234386397</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6801215822141</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2187611543.646178</v>
+        <v>1956070119.261904</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06802786283545008</v>
+        <v>0.1013487911270777</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04587092492486831</v>
+        <v>0.05299421996203594</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3074522921.596288</v>
+        <v>2701649986.399464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09568911658791507</v>
+        <v>0.1128058564802282</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05161970546836511</v>
+        <v>0.04713378356085893</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4021543638.046299</v>
+        <v>3622613928.884294</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287448192837354</v>
+        <v>0.1792356563605348</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02379448047251562</v>
+        <v>0.02609777605967809</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2138760726.868132</v>
+        <v>1668847623.534111</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1041822919741991</v>
+        <v>0.1135232991933374</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03660455561953521</v>
+        <v>0.02357541694269644</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4231093308.381629</v>
+        <v>4954155030.981866</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1204308144501564</v>
+        <v>0.1180727701815007</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02070132581427558</v>
+        <v>0.02297370790619294</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2150171084.805209</v>
+        <v>1830925557.219568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1754622992035169</v>
+        <v>0.1127779294704771</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02438555918487934</v>
+        <v>0.02797660168228845</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3643481746.437495</v>
+        <v>3048083463.48021</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1313562311872603</v>
+        <v>0.0950247358024901</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03752962162146471</v>
+        <v>0.03936120308204023</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1378890926.686055</v>
+        <v>1794170536.497636</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1352114358100855</v>
+        <v>0.1338672949312195</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02959915859167838</v>
+        <v>0.0290078115476421</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4224851769.141107</v>
+        <v>4448035339.142472</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08304760203626915</v>
+        <v>0.06759859961777219</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02839537090934429</v>
+        <v>0.03569236712255089</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4168195328.8737</v>
+        <v>4283417735.806988</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09931701557738534</v>
+        <v>0.09345746472450073</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02599065299555305</v>
+        <v>0.02887555558231946</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4816701436.474254</v>
+        <v>4400271979.442273</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1818982589979853</v>
+        <v>0.2034552871214414</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02961230969113725</v>
+        <v>0.02210377226774787</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.4661288591958</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2071998426.525524</v>
+        <v>1828939045.488614</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1578314943720507</v>
+        <v>0.129699787141203</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04124814194346294</v>
+        <v>0.03837503940592416</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2600359968.553888</v>
+        <v>2216521726.245336</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07950533742819814</v>
+        <v>0.09849919922054891</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04702222576571578</v>
+        <v>0.03330762205591869</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2742719022.932081</v>
+        <v>2701404548.629076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1545505437598714</v>
+        <v>0.1143987291998395</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05250560604164565</v>
+        <v>0.03560573213706728</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2072961783.037174</v>
+        <v>1967545023.27958</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1467164146023749</v>
+        <v>0.1541307209019321</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02128007085722734</v>
+        <v>0.02711624376992709</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>924626465.8355869</v>
+        <v>1322508461.724099</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1250020297126235</v>
+        <v>0.1456082582676987</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03399692477213506</v>
+        <v>0.03824126551444642</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2404089489.760389</v>
+        <v>3372754013.165533</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1738543592329992</v>
+        <v>0.135810200566893</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03391266989378464</v>
+        <v>0.0278968051297545</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2338058349.566236</v>
+        <v>2882818671.293579</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1334593913885221</v>
+        <v>0.1386383503085691</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02979645108241183</v>
+        <v>0.02864005366265577</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1458818200.122447</v>
+        <v>2093370464.397633</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1038999327386113</v>
+        <v>0.1190929202164692</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03596519433293836</v>
+        <v>0.0472976670716401</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2021681122.350352</v>
+        <v>1785412219.300977</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1667278852269796</v>
+        <v>0.1227768402297312</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03972331248665631</v>
+        <v>0.06005249395696004</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1932207673.090532</v>
+        <v>2939145426.181676</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08281692512800745</v>
+        <v>0.1029529080414617</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04129061868124895</v>
+        <v>0.04435384513937589</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4489788452.872315</v>
+        <v>4827180086.539498</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1159813193562176</v>
+        <v>0.0981968165983554</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04887737669143512</v>
+        <v>0.05052512506433518</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1930542752.874518</v>
+        <v>2422614894.158612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1227933835074044</v>
+        <v>0.1435747104597734</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04060906902307802</v>
+        <v>0.03256056320715467</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1982617231.67607</v>
+        <v>2937007020.626453</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1026418263295656</v>
+        <v>0.1242292615858152</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03722710925592918</v>
+        <v>0.0344391304059606</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1536305097.885266</v>
+        <v>1637119343.405789</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1281161703866055</v>
+        <v>0.09568013068236061</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04103689226231252</v>
+        <v>0.02864365580849947</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4451488524.96097</v>
+        <v>3764897050.74532</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1418652938845217</v>
+        <v>0.1624607155199199</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0202394348299578</v>
+        <v>0.01845878103350862</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3515666276.83132</v>
+        <v>2762524500.919531</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1178714177206803</v>
+        <v>0.1106153573021272</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0292347574764021</v>
+        <v>0.02450201541382683</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>75.7710800922069</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2616269954.410603</v>
+        <v>3303061660.27939</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1001096940359744</v>
+        <v>0.1272434027149701</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03013787376296954</v>
+        <v>0.03119055511568692</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3116213178.465961</v>
+        <v>3605413715.590856</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115752919546428</v>
+        <v>0.1677079766062568</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01714474220232273</v>
+        <v>0.02599297743073254</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>138.5951855348646</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2594281262.433549</v>
+        <v>2846550945.418932</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1414962019479017</v>
+        <v>0.1480714723627938</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04823126891960181</v>
+        <v>0.03883540886571896</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
